--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GoIT\WEB\WEB_HW6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="72" windowWidth="22020" windowHeight="10080"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>students</t>
   </si>
@@ -63,19 +68,22 @@
     <t>assessment_subj</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>fr_sb (id_sb)</t>
   </si>
   <si>
-    <t>fr_gr (id_gr)</t>
+    <t>date_in</t>
+  </si>
+  <si>
+    <t>id_as</t>
+  </si>
+  <si>
+    <t>name_st</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,25 +137,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -157,16 +171,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -175,8 +189,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5996940" y="297180"/>
-          <a:ext cx="1272540" cy="1066800"/>
+          <a:off x="6438900" y="297180"/>
+          <a:ext cx="1173480" cy="1539240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -205,15 +219,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>701040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -222,8 +236,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1173480" y="388620"/>
-          <a:ext cx="1653540" cy="975360"/>
+          <a:off x="1333500" y="342900"/>
+          <a:ext cx="1348740" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -251,15 +265,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -299,14 +313,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -315,9 +329,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2522220" y="2385060"/>
-          <a:ext cx="327660" cy="731520"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1074420" y="2979420"/>
+          <a:ext cx="68580" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -349,7 +363,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Офіс">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -387,9 +401,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Офіс">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,7 +473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Офіс">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -636,190 +650,224 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" customWidth="1"/>
-    <col min="10" max="10" width="3.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="F2" s="2" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="F3" s="3" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="L9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="L10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="L17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="L18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="K15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="K16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
+      <c r="E19" s="5"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
